--- a/data/pca/factorExposure/factorExposure_2011-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.01009616488488136</v>
+        <v>-0.01440563748046653</v>
       </c>
       <c r="C2">
-        <v>-0.003214585668610747</v>
+        <v>0.007896520783300911</v>
       </c>
       <c r="D2">
-        <v>0.009629401495924551</v>
+        <v>-0.003828808211582968</v>
       </c>
       <c r="E2">
-        <v>0.01908395961169365</v>
+        <v>-0.01204041784311191</v>
       </c>
       <c r="F2">
-        <v>0.01151122556991743</v>
+        <v>-0.001489773494337919</v>
       </c>
       <c r="G2">
-        <v>0.02276162962141746</v>
+        <v>0.02497907776259228</v>
       </c>
       <c r="H2">
-        <v>0.03843890450737256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01065213163594045</v>
+      </c>
+      <c r="I2">
+        <v>0.005457777709486306</v>
+      </c>
+      <c r="J2">
+        <v>0.02080096476232554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1081108832222471</v>
+        <v>-0.1214155076395935</v>
       </c>
       <c r="C4">
-        <v>0.01883677857325917</v>
+        <v>0.05307112397921838</v>
       </c>
       <c r="D4">
-        <v>0.07729599385270161</v>
+        <v>-0.009407557509841376</v>
       </c>
       <c r="E4">
-        <v>0.03586365666532817</v>
+        <v>-0.003619536381010595</v>
       </c>
       <c r="F4">
-        <v>0.03037021912012448</v>
+        <v>-0.005858768105428181</v>
       </c>
       <c r="G4">
-        <v>0.02263378591424287</v>
+        <v>0.004360255542946179</v>
       </c>
       <c r="H4">
-        <v>-0.04024189904575461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.04450870659483981</v>
+      </c>
+      <c r="I4">
+        <v>-0.1449764133942174</v>
+      </c>
+      <c r="J4">
+        <v>0.002067355322984342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1292709819197235</v>
+        <v>-0.1178300857586797</v>
       </c>
       <c r="C6">
-        <v>0.03025197941762849</v>
+        <v>-0.001135068524223785</v>
       </c>
       <c r="D6">
-        <v>-0.02905224510607442</v>
+        <v>-0.008530102476970669</v>
       </c>
       <c r="E6">
-        <v>0.02385069299854067</v>
+        <v>-0.01589858602141209</v>
       </c>
       <c r="F6">
-        <v>-0.2576669519814122</v>
+        <v>-0.03212280418092088</v>
       </c>
       <c r="G6">
-        <v>-0.1676833419490084</v>
+        <v>-0.03979128964957816</v>
       </c>
       <c r="H6">
-        <v>-0.2415107280079012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.05967078340186283</v>
+      </c>
+      <c r="I6">
+        <v>-0.01909837758036064</v>
+      </c>
+      <c r="J6">
+        <v>-0.2179208663087719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.09050758934240516</v>
+        <v>-0.0809376301827259</v>
       </c>
       <c r="C7">
-        <v>0.03616840983907849</v>
+        <v>0.05100566750377112</v>
       </c>
       <c r="D7">
-        <v>0.02809997471828098</v>
+        <v>-0.040740946810809</v>
       </c>
       <c r="E7">
-        <v>0.05019966339696944</v>
+        <v>-0.04904437880190596</v>
       </c>
       <c r="F7">
-        <v>-0.008550192434942174</v>
+        <v>-0.005906119759944697</v>
       </c>
       <c r="G7">
-        <v>0.001586826983630366</v>
+        <v>0.03873318323022799</v>
       </c>
       <c r="H7">
-        <v>-0.01273055943977874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02795712918644959</v>
+      </c>
+      <c r="I7">
+        <v>-0.05209583161047554</v>
+      </c>
+      <c r="J7">
+        <v>0.04064620473882722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04221333255209689</v>
+        <v>-0.04960525127130613</v>
       </c>
       <c r="C8">
-        <v>-0.0363793784668255</v>
+        <v>0.003213465758111636</v>
       </c>
       <c r="D8">
-        <v>0.1192359229767308</v>
+        <v>-0.005339039709158348</v>
       </c>
       <c r="E8">
-        <v>0.08064748219308826</v>
+        <v>-0.01888217336915456</v>
       </c>
       <c r="F8">
-        <v>0.01196629637263791</v>
+        <v>0.008157245054354431</v>
       </c>
       <c r="G8">
-        <v>0.1368612751671995</v>
+        <v>0.0008628941421972619</v>
       </c>
       <c r="H8">
-        <v>-0.1275047772290012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05680758845149966</v>
+      </c>
+      <c r="I8">
+        <v>-0.1106492842366299</v>
+      </c>
+      <c r="J8">
+        <v>-0.05126085061632588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09437508209447393</v>
+        <v>-0.09472242170511282</v>
       </c>
       <c r="C9">
-        <v>0.03608727212966575</v>
+        <v>0.05508745327731735</v>
       </c>
       <c r="D9">
-        <v>0.06209561402834524</v>
+        <v>0.005639576570893128</v>
       </c>
       <c r="E9">
-        <v>0.0372365690673125</v>
+        <v>-0.01478980287702675</v>
       </c>
       <c r="F9">
-        <v>0.01734296361562501</v>
+        <v>0.005857043435766798</v>
       </c>
       <c r="G9">
-        <v>0.06104566911319913</v>
+        <v>0.01952332557985264</v>
       </c>
       <c r="H9">
-        <v>-0.0694991752665962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.05894428183435033</v>
+      </c>
+      <c r="I9">
+        <v>-0.1201030456895947</v>
+      </c>
+      <c r="J9">
+        <v>-0.006906021683254882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.03820908168537786</v>
+        <v>-0.07373871441240022</v>
       </c>
       <c r="C10">
-        <v>-0.173829793216592</v>
+        <v>-0.1820659308417702</v>
       </c>
       <c r="D10">
-        <v>0.03812271832775392</v>
+        <v>0.01260794281244062</v>
       </c>
       <c r="E10">
-        <v>0.09568105430815965</v>
+        <v>0.003734217540060269</v>
       </c>
       <c r="F10">
-        <v>-0.02562699007973592</v>
+        <v>-0.01374162890394914</v>
       </c>
       <c r="G10">
-        <v>-0.01956092567873204</v>
+        <v>0.0687080713658175</v>
       </c>
       <c r="H10">
-        <v>-0.02980814635441164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.007028955610156284</v>
+      </c>
+      <c r="I10">
+        <v>-0.01193424846530172</v>
+      </c>
+      <c r="J10">
+        <v>0.02204423780991976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.0761393319296451</v>
+        <v>-0.08469000647077725</v>
       </c>
       <c r="C11">
-        <v>0.05729500014812886</v>
+        <v>0.05376752551995101</v>
       </c>
       <c r="D11">
-        <v>-0.01969548519318663</v>
+        <v>-0.02613636667087409</v>
       </c>
       <c r="E11">
-        <v>0.02728746102937949</v>
+        <v>-0.033315703413938</v>
       </c>
       <c r="F11">
-        <v>0.03078141901487095</v>
+        <v>0.04775265583848872</v>
       </c>
       <c r="G11">
-        <v>0.1556012204548485</v>
+        <v>-0.0008944169659605937</v>
       </c>
       <c r="H11">
-        <v>0.01042953339862185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.07186939678677115</v>
+      </c>
+      <c r="I11">
+        <v>-0.1021742976824178</v>
+      </c>
+      <c r="J11">
+        <v>0.001925055378674616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.07458925810261961</v>
+        <v>-0.0889710960594958</v>
       </c>
       <c r="C12">
-        <v>0.04130990815758329</v>
+        <v>0.06373608169809765</v>
       </c>
       <c r="D12">
-        <v>0.02690970315920581</v>
+        <v>-0.02915268276728145</v>
       </c>
       <c r="E12">
-        <v>0.007998474989842725</v>
+        <v>-0.03584815181036691</v>
       </c>
       <c r="F12">
-        <v>-0.01090709485418889</v>
+        <v>0.06568234397611718</v>
       </c>
       <c r="G12">
-        <v>0.15724120330432</v>
+        <v>0.01532712909652848</v>
       </c>
       <c r="H12">
-        <v>0.002394111214109056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.08108958816972428</v>
+      </c>
+      <c r="I12">
+        <v>-0.07805960614695656</v>
+      </c>
+      <c r="J12">
+        <v>-0.02567319468443943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0629063009653846</v>
+        <v>-0.04772551527008962</v>
       </c>
       <c r="C13">
-        <v>0.006030777448423555</v>
+        <v>0.02578501847382609</v>
       </c>
       <c r="D13">
-        <v>0.02145298613288474</v>
+        <v>0.02845214117242929</v>
       </c>
       <c r="E13">
-        <v>0.01097271950812134</v>
+        <v>-0.01367054742525132</v>
       </c>
       <c r="F13">
-        <v>0.05091304055549488</v>
+        <v>-0.01542070667832514</v>
       </c>
       <c r="G13">
-        <v>0.06670283624554464</v>
+        <v>0.008682237418943922</v>
       </c>
       <c r="H13">
-        <v>-0.03739806504977011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.05961438901433531</v>
+      </c>
+      <c r="I13">
+        <v>-0.06546614354831259</v>
+      </c>
+      <c r="J13">
+        <v>-0.04254022909715177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.05451547444027405</v>
+        <v>-0.03387385136687101</v>
       </c>
       <c r="C14">
-        <v>0.006219142277922694</v>
+        <v>0.005829758939785796</v>
       </c>
       <c r="D14">
-        <v>0.04240866170741444</v>
+        <v>-0.007598580286734063</v>
       </c>
       <c r="E14">
-        <v>0.04449037214188679</v>
+        <v>-0.00365576049966254</v>
       </c>
       <c r="F14">
-        <v>0.01759975988017647</v>
+        <v>0.01436124921609132</v>
       </c>
       <c r="G14">
-        <v>-0.008604889663619216</v>
+        <v>0.007412515357384171</v>
       </c>
       <c r="H14">
-        <v>-0.1404146010169976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03200494636726638</v>
+      </c>
+      <c r="I14">
+        <v>-0.0865070730671352</v>
+      </c>
+      <c r="J14">
+        <v>0.04778572122535471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0365012671728826</v>
+        <v>-0.0294537286329873</v>
       </c>
       <c r="C15">
-        <v>-0.01063703137481172</v>
+        <v>0.0112757279352239</v>
       </c>
       <c r="D15">
-        <v>0.006731872492207312</v>
+        <v>0.01057835701738746</v>
       </c>
       <c r="E15">
-        <v>0.01938533653612338</v>
+        <v>-0.01524417184693798</v>
       </c>
       <c r="F15">
-        <v>0.001106546844796747</v>
+        <v>-0.03059228325131993</v>
       </c>
       <c r="G15">
-        <v>-0.005167150263559523</v>
+        <v>0.007202267701968077</v>
       </c>
       <c r="H15">
-        <v>-0.07324574655008492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03976258721111729</v>
+      </c>
+      <c r="I15">
+        <v>-0.03027824201618732</v>
+      </c>
+      <c r="J15">
+        <v>0.01894317145566008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08253765354735527</v>
+        <v>-0.09204081295765375</v>
       </c>
       <c r="C16">
-        <v>0.06869047522260188</v>
+        <v>0.06036387212953328</v>
       </c>
       <c r="D16">
-        <v>0.03575121089951285</v>
+        <v>-0.04025629302280885</v>
       </c>
       <c r="E16">
-        <v>0.01083793214152902</v>
+        <v>-0.04563788474540468</v>
       </c>
       <c r="F16">
-        <v>0.04667552296104106</v>
+        <v>0.04945714473272532</v>
       </c>
       <c r="G16">
-        <v>0.1286847403791551</v>
+        <v>0.002517048560941484</v>
       </c>
       <c r="H16">
-        <v>0.009056280076748626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09385917710036303</v>
+      </c>
+      <c r="I16">
+        <v>-0.09481691084415177</v>
+      </c>
+      <c r="J16">
+        <v>0.0143392050136176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05658565096668417</v>
+        <v>-0.05331445770568558</v>
       </c>
       <c r="C20">
-        <v>0.01793502638292108</v>
+        <v>0.02568360512366069</v>
       </c>
       <c r="D20">
-        <v>0.01395071554034879</v>
+        <v>-0.03228433056245449</v>
       </c>
       <c r="E20">
-        <v>0.01807484129788036</v>
+        <v>-0.005828814226684295</v>
       </c>
       <c r="F20">
-        <v>0.002303622628457818</v>
+        <v>-0.01022246905770754</v>
       </c>
       <c r="G20">
-        <v>0.103004957556006</v>
+        <v>0.002601559689902752</v>
       </c>
       <c r="H20">
-        <v>-0.02495165129490573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.0354070618294778</v>
+      </c>
+      <c r="I20">
+        <v>-0.06103571866314085</v>
+      </c>
+      <c r="J20">
+        <v>0.02687356540717604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02862544162706274</v>
+        <v>-0.02279091588163469</v>
       </c>
       <c r="C21">
-        <v>0.03168187605121061</v>
+        <v>0.005285111388195458</v>
       </c>
       <c r="D21">
-        <v>0.003547479093535873</v>
+        <v>-0.00967884353569845</v>
       </c>
       <c r="E21">
-        <v>0.00502881760277826</v>
+        <v>0.03227294635457334</v>
       </c>
       <c r="F21">
-        <v>-0.07504955684670525</v>
+        <v>-0.006397730924344284</v>
       </c>
       <c r="G21">
-        <v>-0.1355391337797618</v>
+        <v>-0.02720464501935921</v>
       </c>
       <c r="H21">
-        <v>-0.04766690818166004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.02350264226765401</v>
+      </c>
+      <c r="I21">
+        <v>-0.09079169470984899</v>
+      </c>
+      <c r="J21">
+        <v>-0.02395719605586442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.04315926617413007</v>
+        <v>-0.03441956343800935</v>
       </c>
       <c r="C22">
-        <v>0.01191375453962487</v>
+        <v>-0.007373101420741489</v>
       </c>
       <c r="D22">
-        <v>0.5509496006395886</v>
+        <v>-0.007212163016220094</v>
       </c>
       <c r="E22">
-        <v>-0.2293167269195109</v>
+        <v>-0.1415614671011751</v>
       </c>
       <c r="F22">
-        <v>0.07772849762996782</v>
+        <v>-0.6053767973596067</v>
       </c>
       <c r="G22">
-        <v>-0.2546395029845209</v>
+        <v>0.07976455534918933</v>
       </c>
       <c r="H22">
-        <v>0.121134883518423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.2272509267496331</v>
+      </c>
+      <c r="I22">
+        <v>0.1174848983185859</v>
+      </c>
+      <c r="J22">
+        <v>-0.004119744347924096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04358064553707321</v>
+        <v>-0.0345954433071933</v>
       </c>
       <c r="C23">
-        <v>0.01270503187075938</v>
+        <v>-0.007072880220208703</v>
       </c>
       <c r="D23">
-        <v>0.5505546673894441</v>
+        <v>-0.007648839873602749</v>
       </c>
       <c r="E23">
-        <v>-0.2276529773252489</v>
+        <v>-0.1433268816770866</v>
       </c>
       <c r="F23">
-        <v>0.07784669162165186</v>
+        <v>-0.6071301974599375</v>
       </c>
       <c r="G23">
-        <v>-0.256703753019172</v>
+        <v>0.07952758841069199</v>
       </c>
       <c r="H23">
-        <v>0.1210368063048289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.2284310545339867</v>
+      </c>
+      <c r="I23">
+        <v>0.1142715618499574</v>
+      </c>
+      <c r="J23">
+        <v>-0.003957529361755474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0854585978902024</v>
+        <v>-0.09479068544651363</v>
       </c>
       <c r="C24">
-        <v>0.04485754556477318</v>
+        <v>0.05777615593685164</v>
       </c>
       <c r="D24">
-        <v>0.02836299725970537</v>
+        <v>-0.03465035918077526</v>
       </c>
       <c r="E24">
-        <v>0.02928364345116566</v>
+        <v>-0.03214409433085284</v>
       </c>
       <c r="F24">
-        <v>0.01046404862714862</v>
+        <v>0.04686108119670448</v>
       </c>
       <c r="G24">
-        <v>0.1243756954828623</v>
+        <v>0.01928022172611806</v>
       </c>
       <c r="H24">
-        <v>-0.01185816372618265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.0886828647762431</v>
+      </c>
+      <c r="I24">
+        <v>-0.08453968424105192</v>
+      </c>
+      <c r="J24">
+        <v>0.002877440506090127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07789951475544256</v>
+        <v>-0.09397177567356801</v>
       </c>
       <c r="C25">
-        <v>0.02194064071283789</v>
+        <v>0.03808849678294195</v>
       </c>
       <c r="D25">
-        <v>0.02781992338671466</v>
+        <v>-0.02606860058197612</v>
       </c>
       <c r="E25">
-        <v>0.01903938481186264</v>
+        <v>-0.03430058194045577</v>
       </c>
       <c r="F25">
-        <v>-0.01385575657260151</v>
+        <v>0.07211869341793303</v>
       </c>
       <c r="G25">
-        <v>0.1262586863488456</v>
+        <v>0.01627862549800662</v>
       </c>
       <c r="H25">
-        <v>-0.004096968322522765</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.08481407224262824</v>
+      </c>
+      <c r="I25">
+        <v>-0.0846151358218426</v>
+      </c>
+      <c r="J25">
+        <v>0.01189447853829373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.05202142806389178</v>
+        <v>-0.04275613684449688</v>
       </c>
       <c r="C26">
-        <v>0.02230261287520631</v>
+        <v>-0.01069211615794162</v>
       </c>
       <c r="D26">
-        <v>0.02157672574860083</v>
+        <v>-0.02321539447339873</v>
       </c>
       <c r="E26">
-        <v>0.04926483668466648</v>
+        <v>-0.001621421209321287</v>
       </c>
       <c r="F26">
-        <v>0.04432217761010149</v>
+        <v>-0.001687737695379353</v>
       </c>
       <c r="G26">
-        <v>0.04795621987530813</v>
+        <v>-0.01706392695917774</v>
       </c>
       <c r="H26">
-        <v>-0.09423343248748263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05999167311878909</v>
+      </c>
+      <c r="I26">
+        <v>-0.04217045738205542</v>
+      </c>
+      <c r="J26">
+        <v>0.04558863387852291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06244775244540583</v>
+        <v>-0.07902654283968452</v>
       </c>
       <c r="C28">
-        <v>-0.3064867472368396</v>
+        <v>-0.3049099912459203</v>
       </c>
       <c r="D28">
-        <v>-0.01027909374828911</v>
+        <v>0.09668147857743188</v>
       </c>
       <c r="E28">
-        <v>0.02504152629440428</v>
+        <v>-0.01576997681832962</v>
       </c>
       <c r="F28">
-        <v>-0.03368857154261948</v>
+        <v>0.0290820286282546</v>
       </c>
       <c r="G28">
-        <v>-0.005547793385570564</v>
+        <v>0.004061107346169681</v>
       </c>
       <c r="H28">
-        <v>0.08255134673079177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.02936366089050287</v>
+      </c>
+      <c r="I28">
+        <v>-0.04154248532974261</v>
+      </c>
+      <c r="J28">
+        <v>-0.009919401953409025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0596787093841377</v>
+        <v>-0.03697175303048489</v>
       </c>
       <c r="C29">
-        <v>-0.002286403976771671</v>
+        <v>0.007617687005027962</v>
       </c>
       <c r="D29">
-        <v>0.05753370695955745</v>
+        <v>0.004480522055719143</v>
       </c>
       <c r="E29">
-        <v>0.02075033163138634</v>
+        <v>-0.009503625281390253</v>
       </c>
       <c r="F29">
-        <v>0.02854389066831309</v>
+        <v>0.02264901304623913</v>
       </c>
       <c r="G29">
-        <v>0.01904148525389712</v>
+        <v>0.02625813427346877</v>
       </c>
       <c r="H29">
-        <v>-0.09885316363454888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.07588567276603651</v>
+      </c>
+      <c r="I29">
+        <v>-0.08375762477761491</v>
+      </c>
+      <c r="J29">
+        <v>0.04326993628213444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1187691312831853</v>
+        <v>-0.1184988154907771</v>
       </c>
       <c r="C30">
-        <v>-0.02679672597818078</v>
+        <v>0.06198709448996681</v>
       </c>
       <c r="D30">
-        <v>0.1843998204536009</v>
+        <v>0.01416531968957701</v>
       </c>
       <c r="E30">
-        <v>0.01372294866956587</v>
+        <v>-0.04276541587342386</v>
       </c>
       <c r="F30">
-        <v>-0.1053786403560061</v>
+        <v>0.03382467515611193</v>
       </c>
       <c r="G30">
-        <v>0.1711084984876163</v>
+        <v>-0.02676128108922065</v>
       </c>
       <c r="H30">
-        <v>-0.02717164955828428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1390519391462778</v>
+      </c>
+      <c r="I30">
+        <v>-0.0679229723268025</v>
+      </c>
+      <c r="J30">
+        <v>-0.2810266765967764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05546050654479542</v>
+        <v>-0.03630193358103354</v>
       </c>
       <c r="C31">
-        <v>0.02378025692688539</v>
+        <v>0.02384086750133554</v>
       </c>
       <c r="D31">
-        <v>0.007136746910099488</v>
+        <v>-0.02238644704663336</v>
       </c>
       <c r="E31">
-        <v>-0.01461015161792933</v>
+        <v>-0.02305928717398584</v>
       </c>
       <c r="F31">
-        <v>0.02826033230849687</v>
+        <v>-0.0008612234455397231</v>
       </c>
       <c r="G31">
-        <v>0.01383692876301513</v>
+        <v>0.003215645842030497</v>
       </c>
       <c r="H31">
-        <v>-0.04348255498008237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.009771364396568125</v>
+      </c>
+      <c r="I31">
+        <v>-0.04597743500811164</v>
+      </c>
+      <c r="J31">
+        <v>0.05694362526100919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0340106835949152</v>
+        <v>-0.05465246757979557</v>
       </c>
       <c r="C32">
-        <v>-0.008380452523201539</v>
+        <v>0.003847632596120957</v>
       </c>
       <c r="D32">
-        <v>0.09172988247382058</v>
+        <v>-0.0197334141421513</v>
       </c>
       <c r="E32">
-        <v>-0.03064860882337724</v>
+        <v>-0.001462620335771665</v>
       </c>
       <c r="F32">
-        <v>0.1141588147364217</v>
+        <v>0.05344537393717142</v>
       </c>
       <c r="G32">
-        <v>0.02348178410752257</v>
+        <v>-0.03994843744430089</v>
       </c>
       <c r="H32">
-        <v>-0.04609632070616541</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.04148527017247382</v>
+      </c>
+      <c r="I32">
+        <v>-0.03783411085694917</v>
+      </c>
+      <c r="J32">
+        <v>-0.02464641877393041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.1123977482619652</v>
+        <v>-0.1087776815539755</v>
       </c>
       <c r="C33">
-        <v>0.01203657830801778</v>
+        <v>0.05545088622376474</v>
       </c>
       <c r="D33">
-        <v>0.01471335705866059</v>
+        <v>-0.002234081915845634</v>
       </c>
       <c r="E33">
-        <v>-0.02798911482886166</v>
+        <v>-0.07548839691655333</v>
       </c>
       <c r="F33">
-        <v>0.02075868615993911</v>
+        <v>0.04821301569035925</v>
       </c>
       <c r="G33">
-        <v>0.05958254998824754</v>
+        <v>0.003320757484746842</v>
       </c>
       <c r="H33">
-        <v>-0.08707314331466356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.0789327490209031</v>
+      </c>
+      <c r="I33">
+        <v>-0.05531906025746951</v>
+      </c>
+      <c r="J33">
+        <v>0.01168545855846296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06987042948441551</v>
+        <v>-0.08389968060048057</v>
       </c>
       <c r="C34">
-        <v>0.04230579542323751</v>
+        <v>0.04769862245294466</v>
       </c>
       <c r="D34">
-        <v>0.01023565036924925</v>
+        <v>-0.03309836444498476</v>
       </c>
       <c r="E34">
-        <v>-0.001312311400106346</v>
+        <v>-0.03603117989085657</v>
       </c>
       <c r="F34">
-        <v>0.02720143104300591</v>
+        <v>0.05237927290464089</v>
       </c>
       <c r="G34">
-        <v>0.09750579114319631</v>
+        <v>0.01252569689799491</v>
       </c>
       <c r="H34">
-        <v>-0.01077883243519648</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1028925683845828</v>
+      </c>
+      <c r="I34">
+        <v>-0.0736257222090793</v>
+      </c>
+      <c r="J34">
+        <v>0.004495502039246275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04270623810659645</v>
+        <v>-0.02133936446248654</v>
       </c>
       <c r="C35">
-        <v>0.007746184514796371</v>
+        <v>0.01221306936825842</v>
       </c>
       <c r="D35">
-        <v>-0.01046994314516644</v>
+        <v>0.006410301790895813</v>
       </c>
       <c r="E35">
-        <v>-0.009487736888297916</v>
+        <v>-0.008288468471154676</v>
       </c>
       <c r="F35">
-        <v>-0.04108281559909603</v>
+        <v>0.01418437142221658</v>
       </c>
       <c r="G35">
-        <v>0.0536148099056544</v>
+        <v>0.007591637268034378</v>
       </c>
       <c r="H35">
-        <v>0.004303085537088813</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.04782029209066587</v>
+      </c>
+      <c r="I35">
+        <v>-0.04665554281974769</v>
+      </c>
+      <c r="J35">
+        <v>0.03641564348463804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03791074753214295</v>
+        <v>-0.02600385105201183</v>
       </c>
       <c r="C36">
-        <v>0.001550188418932154</v>
+        <v>0.00661191982738402</v>
       </c>
       <c r="D36">
-        <v>0.03221938059334674</v>
+        <v>0.007494933923124756</v>
       </c>
       <c r="E36">
-        <v>0.01814822791048907</v>
+        <v>-0.003609109141874738</v>
       </c>
       <c r="F36">
-        <v>-0.003993562923292828</v>
+        <v>-0.01031270763955482</v>
       </c>
       <c r="G36">
-        <v>0.05606442822339958</v>
+        <v>-0.0114690751776909</v>
       </c>
       <c r="H36">
-        <v>-0.07165653387082506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.0274474795637275</v>
+      </c>
+      <c r="I36">
+        <v>-0.04876285444812788</v>
+      </c>
+      <c r="J36">
+        <v>0.003504416232167081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05550155582462296</v>
+        <v>-0.01836977472975076</v>
       </c>
       <c r="C38">
-        <v>0.01772232171777376</v>
+        <v>0.01051482363152291</v>
       </c>
       <c r="D38">
-        <v>0.008840035403489835</v>
+        <v>-0.009078882666053731</v>
       </c>
       <c r="E38">
-        <v>0.01200838030423851</v>
+        <v>-0.01466203315182918</v>
       </c>
       <c r="F38">
-        <v>0.02922332938793886</v>
+        <v>-0.01950943435706975</v>
       </c>
       <c r="G38">
-        <v>0.05514550316759855</v>
+        <v>0.01639359084004626</v>
       </c>
       <c r="H38">
-        <v>0.003885025885583765</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.009812097139131851</v>
+      </c>
+      <c r="I38">
+        <v>0.03876711385357265</v>
+      </c>
+      <c r="J38">
+        <v>0.0005578556185065413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1079230635912419</v>
+        <v>-0.1422021727741999</v>
       </c>
       <c r="C39">
-        <v>0.04059608398806321</v>
+        <v>0.08985710030482878</v>
       </c>
       <c r="D39">
-        <v>0.06059479403648187</v>
+        <v>-0.02762606081463698</v>
       </c>
       <c r="E39">
-        <v>0.01244698757475969</v>
+        <v>-0.05041908144069321</v>
       </c>
       <c r="F39">
-        <v>0.02881033181088979</v>
+        <v>0.1438130076802109</v>
       </c>
       <c r="G39">
-        <v>0.1659377033967363</v>
+        <v>0.02265859588259997</v>
       </c>
       <c r="H39">
-        <v>0.06379158698202225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1531301564521544</v>
+      </c>
+      <c r="I39">
+        <v>-0.06367859049578758</v>
+      </c>
+      <c r="J39">
+        <v>0.04687858250832915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04755570434668719</v>
+        <v>-0.01766499073936141</v>
       </c>
       <c r="C40">
-        <v>0.01604755496581491</v>
+        <v>0.01635501506928213</v>
       </c>
       <c r="D40">
-        <v>0.06900213547852875</v>
+        <v>-0.01485315301530242</v>
       </c>
       <c r="E40">
-        <v>-0.03660631217813155</v>
+        <v>0.0004185844551345846</v>
       </c>
       <c r="F40">
-        <v>-0.01442069596968437</v>
+        <v>-0.05681936653480805</v>
       </c>
       <c r="G40">
-        <v>0.3103307988243442</v>
+        <v>0.002020118588098388</v>
       </c>
       <c r="H40">
-        <v>-0.01191763036454354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.07067500104338653</v>
+      </c>
+      <c r="I40">
+        <v>-0.08646915179040292</v>
+      </c>
+      <c r="J40">
+        <v>-0.06582987794353361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.04934604076085149</v>
+        <v>-0.02647412652669518</v>
       </c>
       <c r="C41">
-        <v>0.02993620732233247</v>
+        <v>-0.004865931460058211</v>
       </c>
       <c r="D41">
-        <v>-0.01890438128532112</v>
+        <v>-0.03059063422503548</v>
       </c>
       <c r="E41">
-        <v>0.01091060340367959</v>
+        <v>-0.008245013353511995</v>
       </c>
       <c r="F41">
-        <v>0.03811998177162133</v>
+        <v>0.01431169201251834</v>
       </c>
       <c r="G41">
-        <v>0.05398223151468164</v>
+        <v>0.009212119323018094</v>
       </c>
       <c r="H41">
-        <v>-0.003253531762688267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.008782008823441099</v>
+      </c>
+      <c r="I41">
+        <v>-0.02491730467238217</v>
+      </c>
+      <c r="J41">
+        <v>0.02293421115212218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07409994113802759</v>
+        <v>-0.04026281835996454</v>
       </c>
       <c r="C43">
-        <v>0.02410701182300597</v>
+        <v>0.001755042668901536</v>
       </c>
       <c r="D43">
-        <v>0.02396595577626874</v>
+        <v>-0.03893175609300854</v>
       </c>
       <c r="E43">
-        <v>0.0106894082747696</v>
+        <v>-0.03845369043125867</v>
       </c>
       <c r="F43">
-        <v>0.03910304635550647</v>
+        <v>-0.0001400863232935991</v>
       </c>
       <c r="G43">
-        <v>0.009938457566004389</v>
+        <v>0.002171366327158252</v>
       </c>
       <c r="H43">
-        <v>0.002559153656368393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.009366806526941898</v>
+      </c>
+      <c r="I43">
+        <v>-0.0308572403332387</v>
+      </c>
+      <c r="J43">
+        <v>0.04635280259027879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.07949609918434315</v>
+        <v>-0.1264783014098778</v>
       </c>
       <c r="C44">
-        <v>0.006623390546502186</v>
+        <v>0.07903250002479779</v>
       </c>
       <c r="D44">
-        <v>0.07462911306166814</v>
+        <v>0.004766144372464502</v>
       </c>
       <c r="E44">
-        <v>0.09625050041305222</v>
+        <v>-0.0402621204288978</v>
       </c>
       <c r="F44">
-        <v>0.07145181873840281</v>
+        <v>-0.04827032403845891</v>
       </c>
       <c r="G44">
-        <v>0.08667725448408228</v>
+        <v>0.09230228579067895</v>
       </c>
       <c r="H44">
-        <v>-0.04261476194210825</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.1984762383980745</v>
+      </c>
+      <c r="I44">
+        <v>-0.1127156524638816</v>
+      </c>
+      <c r="J44">
+        <v>-0.2007687525852127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05370037442685272</v>
+        <v>-0.02530579594385101</v>
       </c>
       <c r="C46">
-        <v>0.03808541242139675</v>
+        <v>-0.00258661043010594</v>
       </c>
       <c r="D46">
-        <v>0.05008354191515138</v>
+        <v>-0.02484642328410483</v>
       </c>
       <c r="E46">
-        <v>-0.002896690575298902</v>
+        <v>-0.03500170246529379</v>
       </c>
       <c r="F46">
-        <v>0.02145996683250518</v>
+        <v>-0.02605011113740781</v>
       </c>
       <c r="G46">
-        <v>0.009325507430007178</v>
+        <v>0.01997278828325184</v>
       </c>
       <c r="H46">
-        <v>-0.08846507178964116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.0508467072749898</v>
+      </c>
+      <c r="I46">
+        <v>-0.05538246592904268</v>
+      </c>
+      <c r="J46">
+        <v>0.05567435351643545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05175965906988006</v>
+        <v>-0.04202800829339164</v>
       </c>
       <c r="C47">
-        <v>-2.47706376001876e-05</v>
+        <v>-0.002807676682974504</v>
       </c>
       <c r="D47">
-        <v>0.07174499242600295</v>
+        <v>-0.01206192722789073</v>
       </c>
       <c r="E47">
-        <v>-0.03442996998441281</v>
+        <v>-0.01357825328391572</v>
       </c>
       <c r="F47">
-        <v>-0.01198505241679676</v>
+        <v>-0.01424155379667421</v>
       </c>
       <c r="G47">
-        <v>0.0130498403367153</v>
+        <v>-0.009159766456196887</v>
       </c>
       <c r="H47">
-        <v>-0.03331788832517339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02027427908953457</v>
+      </c>
+      <c r="I47">
+        <v>-0.04227939577123652</v>
+      </c>
+      <c r="J47">
+        <v>0.03355375929361148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04255164884736714</v>
+        <v>-0.03943842685460949</v>
       </c>
       <c r="C48">
-        <v>0.002669418170066128</v>
+        <v>0.006538863945877515</v>
       </c>
       <c r="D48">
-        <v>0.03400517410630203</v>
+        <v>0.0112216967273934</v>
       </c>
       <c r="E48">
-        <v>-0.04066516691944826</v>
+        <v>-0.01211063786549246</v>
       </c>
       <c r="F48">
-        <v>-0.015221338243237</v>
+        <v>0.005780751267055973</v>
       </c>
       <c r="G48">
-        <v>0.05286709055559692</v>
+        <v>-0.01300486009282596</v>
       </c>
       <c r="H48">
-        <v>-0.02080286480787319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05232857853068709</v>
+      </c>
+      <c r="I48">
+        <v>-0.05714000826337073</v>
+      </c>
+      <c r="J48">
+        <v>0.0327224866087367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2410597364308783</v>
+        <v>-0.2271483852083754</v>
       </c>
       <c r="C49">
-        <v>0.06557067354367364</v>
+        <v>0.001324633387989589</v>
       </c>
       <c r="D49">
-        <v>-0.09817460952272969</v>
+        <v>-0.06710827818191427</v>
       </c>
       <c r="E49">
-        <v>0.0163042347564598</v>
+        <v>0.03052160785293021</v>
       </c>
       <c r="F49">
-        <v>-0.07849674309927854</v>
+        <v>0.01997189449327359</v>
       </c>
       <c r="G49">
-        <v>-0.1539100519852051</v>
+        <v>0.06865249890524666</v>
       </c>
       <c r="H49">
-        <v>0.1551099076572897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1342632701814317</v>
+      </c>
+      <c r="I49">
+        <v>0.2124226423571776</v>
+      </c>
+      <c r="J49">
+        <v>-0.1580650362202352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05572291357366682</v>
+        <v>-0.04339033391626863</v>
       </c>
       <c r="C50">
-        <v>0.01585837018062686</v>
+        <v>0.01921194335417632</v>
       </c>
       <c r="D50">
-        <v>0.0163000539334206</v>
+        <v>-0.028722418386238</v>
       </c>
       <c r="E50">
-        <v>-0.02022264174022228</v>
+        <v>-0.01596498400089055</v>
       </c>
       <c r="F50">
-        <v>0.03560564267826746</v>
+        <v>0.007266142089948429</v>
       </c>
       <c r="G50">
-        <v>0.001566499184100557</v>
+        <v>0.004800346305452856</v>
       </c>
       <c r="H50">
-        <v>-0.06569544643116354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03779030109544916</v>
+      </c>
+      <c r="I50">
+        <v>-0.04021158135399344</v>
+      </c>
+      <c r="J50">
+        <v>0.03605982793011332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03555923212794423</v>
+        <v>-0.01553477735922374</v>
       </c>
       <c r="C51">
-        <v>0.008613322682950817</v>
+        <v>-0.007389438460391627</v>
       </c>
       <c r="D51">
-        <v>0.005331820632846017</v>
+        <v>-0.002201114080664864</v>
       </c>
       <c r="E51">
-        <v>0.02152306024568681</v>
+        <v>-0.01707912995848133</v>
       </c>
       <c r="F51">
-        <v>0.02356502592779731</v>
+        <v>-0.007079702669456156</v>
       </c>
       <c r="G51">
-        <v>-0.01412428728110681</v>
+        <v>0.02200321577900143</v>
       </c>
       <c r="H51">
-        <v>0.04047236607574807</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.02077247882694751</v>
+      </c>
+      <c r="I51">
+        <v>0.006332306859933513</v>
+      </c>
+      <c r="J51">
+        <v>-0.01697241190774386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.09864409391971155</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.06961477993185972</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.02771323072365446</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02525607608089983</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02752648511576289</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.002212072026174693</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.06507717449135327</v>
+      </c>
+      <c r="I52">
+        <v>0.03000365892766102</v>
+      </c>
+      <c r="J52">
+        <v>0.1293084070756576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1637670219547621</v>
+        <v>-0.1584373305843652</v>
       </c>
       <c r="C53">
-        <v>-0.002307157261388672</v>
+        <v>0.01960290973162215</v>
       </c>
       <c r="D53">
-        <v>-0.05826528839598355</v>
+        <v>0.002659598697941285</v>
       </c>
       <c r="E53">
-        <v>-0.04766328204976503</v>
+        <v>0.01217193086263972</v>
       </c>
       <c r="F53">
-        <v>0.1943392896530377</v>
+        <v>-0.0111024820761342</v>
       </c>
       <c r="G53">
-        <v>-0.06374032491894728</v>
+        <v>0.03126706545966612</v>
       </c>
       <c r="H53">
-        <v>-0.04920747818707675</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.02072062323249058</v>
+      </c>
+      <c r="I53">
+        <v>0.1165958770070149</v>
+      </c>
+      <c r="J53">
+        <v>0.1843140789324643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05549694366832376</v>
+        <v>-0.05159233505094373</v>
       </c>
       <c r="C54">
-        <v>0.004255767489589862</v>
+        <v>0.0117207994567265</v>
       </c>
       <c r="D54">
-        <v>0.04077491536399104</v>
+        <v>-0.01328753561450283</v>
       </c>
       <c r="E54">
-        <v>0.002510790278064187</v>
+        <v>-0.01693688406128156</v>
       </c>
       <c r="F54">
-        <v>-0.002790697550918219</v>
+        <v>-0.01714568194008762</v>
       </c>
       <c r="G54">
-        <v>0.04043893283837179</v>
+        <v>-0.009449158502949232</v>
       </c>
       <c r="H54">
-        <v>-0.1007811635666693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06018563925015979</v>
+      </c>
+      <c r="I54">
+        <v>-0.1440771971431546</v>
+      </c>
+      <c r="J54">
+        <v>0.01361527951816185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09771494142672664</v>
+        <v>-0.09023205653499085</v>
       </c>
       <c r="C55">
-        <v>0.009385776930458872</v>
+        <v>0.02780809179065205</v>
       </c>
       <c r="D55">
-        <v>-0.005909512858870973</v>
+        <v>0.01717774946584368</v>
       </c>
       <c r="E55">
-        <v>-0.02835851512306515</v>
+        <v>-0.03612575788970128</v>
       </c>
       <c r="F55">
-        <v>0.1316604810233873</v>
+        <v>0.02155813642404024</v>
       </c>
       <c r="G55">
-        <v>-0.009100333096882428</v>
+        <v>0.007023225870516422</v>
       </c>
       <c r="H55">
-        <v>-0.0783196029347112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.002968303483302633</v>
+      </c>
+      <c r="I55">
+        <v>0.01596008524028615</v>
+      </c>
+      <c r="J55">
+        <v>0.1303582040682041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1652458709709754</v>
+        <v>-0.1632043806248008</v>
       </c>
       <c r="C56">
-        <v>-0.0006139064746574009</v>
+        <v>0.03404426283418071</v>
       </c>
       <c r="D56">
-        <v>-0.06908766434438762</v>
+        <v>-0.0139883238619204</v>
       </c>
       <c r="E56">
-        <v>-0.07543402148829847</v>
+        <v>-0.01813781808677907</v>
       </c>
       <c r="F56">
-        <v>0.1794506506430854</v>
+        <v>0.02522910779856402</v>
       </c>
       <c r="G56">
-        <v>-0.03610797197600778</v>
+        <v>0.0279866968993128</v>
       </c>
       <c r="H56">
-        <v>-0.04834175431167227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.02873342402855655</v>
+      </c>
+      <c r="I56">
+        <v>0.05515723562851806</v>
+      </c>
+      <c r="J56">
+        <v>0.1485938921499773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01977134388934579</v>
+        <v>-0.03500717087404976</v>
       </c>
       <c r="C58">
-        <v>0.07843708422036795</v>
+        <v>0.01484280172029173</v>
       </c>
       <c r="D58">
-        <v>0.2250326164424523</v>
+        <v>-0.01838246200918011</v>
       </c>
       <c r="E58">
-        <v>-0.0464080880359527</v>
+        <v>-0.01434968722240867</v>
       </c>
       <c r="F58">
-        <v>-0.4141966082800185</v>
+        <v>-0.07672777934301822</v>
       </c>
       <c r="G58">
-        <v>0.2168448575294502</v>
+        <v>-0.002035134472046581</v>
       </c>
       <c r="H58">
-        <v>0.1823532281853001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.09858098490178036</v>
+      </c>
+      <c r="I58">
+        <v>0.003357155324622503</v>
+      </c>
+      <c r="J58">
+        <v>0.001449975796763854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1491116359746866</v>
+        <v>-0.1527942196515406</v>
       </c>
       <c r="C59">
-        <v>-0.3820128511803657</v>
+        <v>-0.3019287246572788</v>
       </c>
       <c r="D59">
-        <v>-0.04260528108260622</v>
+        <v>0.08575108906056911</v>
       </c>
       <c r="E59">
-        <v>0.06054202020128831</v>
+        <v>-0.02641892922374831</v>
       </c>
       <c r="F59">
-        <v>0.06049436477951183</v>
+        <v>0.0452332556480519</v>
       </c>
       <c r="G59">
-        <v>0.01805958838822611</v>
+        <v>0.03196000836974934</v>
       </c>
       <c r="H59">
-        <v>0.02263087289536762</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.07384550844048056</v>
+      </c>
+      <c r="I59">
+        <v>-0.03853348622203764</v>
+      </c>
+      <c r="J59">
+        <v>0.01679176424455038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.278843414350879</v>
+        <v>-0.2808579346942333</v>
       </c>
       <c r="C60">
-        <v>0.05237396727600654</v>
+        <v>0.09564866808515914</v>
       </c>
       <c r="D60">
-        <v>-0.07236526210250675</v>
+        <v>-0.01752095832705207</v>
       </c>
       <c r="E60">
-        <v>0.04664968703773629</v>
+        <v>0.09278092828887126</v>
       </c>
       <c r="F60">
-        <v>-0.06988577949725742</v>
+        <v>-0.003340417862698522</v>
       </c>
       <c r="G60">
-        <v>-0.1687338869801296</v>
+        <v>0.1251708891911266</v>
       </c>
       <c r="H60">
-        <v>0.1326567279738151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.14959223407904</v>
+      </c>
+      <c r="I60">
+        <v>0.2446519817667642</v>
+      </c>
+      <c r="J60">
+        <v>-0.3093407857507638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09377317763229397</v>
+        <v>-0.1130460687284614</v>
       </c>
       <c r="C61">
-        <v>0.0202235826179134</v>
+        <v>0.05737050506746959</v>
       </c>
       <c r="D61">
-        <v>0.0294684340178773</v>
+        <v>0.001993149212204219</v>
       </c>
       <c r="E61">
-        <v>0.01118039767116013</v>
+        <v>-0.0403406991913532</v>
       </c>
       <c r="F61">
-        <v>0.0377271774102645</v>
+        <v>0.08462032762868714</v>
       </c>
       <c r="G61">
-        <v>0.0784659333804815</v>
+        <v>0.02885948349672617</v>
       </c>
       <c r="H61">
-        <v>0.01429227666607113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1261456179323368</v>
+      </c>
+      <c r="I61">
+        <v>-0.1387884742180636</v>
+      </c>
+      <c r="J61">
+        <v>0.04864256567801154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1440631329427025</v>
+        <v>-0.1594293394051607</v>
       </c>
       <c r="C62">
-        <v>0.02885305491274596</v>
+        <v>0.03346713710334912</v>
       </c>
       <c r="D62">
-        <v>-0.1231748532576106</v>
+        <v>-0.004589292309930126</v>
       </c>
       <c r="E62">
-        <v>-0.07343039478986244</v>
+        <v>-0.001643181839526442</v>
       </c>
       <c r="F62">
-        <v>0.1612881122031787</v>
+        <v>0.01928555622447788</v>
       </c>
       <c r="G62">
-        <v>-0.02931025739198935</v>
+        <v>0.001838541991810881</v>
       </c>
       <c r="H62">
-        <v>-0.08696920687692122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.001185950711499023</v>
+      </c>
+      <c r="I62">
+        <v>0.0844420832074626</v>
+      </c>
+      <c r="J62">
+        <v>0.1455975531274596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04471040135832708</v>
+        <v>-0.04420735642468811</v>
       </c>
       <c r="C63">
-        <v>0.0185269267446652</v>
+        <v>0.008750750063776657</v>
       </c>
       <c r="D63">
-        <v>-0.0008307234303242095</v>
+        <v>0.005696163736208644</v>
       </c>
       <c r="E63">
-        <v>-0.01884359542676352</v>
+        <v>-0.02483069881311278</v>
       </c>
       <c r="F63">
-        <v>-0.009780815501963767</v>
+        <v>0.01012856969406132</v>
       </c>
       <c r="G63">
-        <v>0.01719378186240532</v>
+        <v>-0.04019129831925877</v>
       </c>
       <c r="H63">
-        <v>-0.117447018540067</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03870111500364271</v>
+      </c>
+      <c r="I63">
+        <v>-0.06901322647657161</v>
+      </c>
+      <c r="J63">
+        <v>0.0399182959836504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1118691315647076</v>
+        <v>-0.09861513666486171</v>
       </c>
       <c r="C64">
-        <v>0.009926514762272205</v>
+        <v>0.01153736190386929</v>
       </c>
       <c r="D64">
-        <v>0.03151447316497682</v>
+        <v>-0.01359892952488023</v>
       </c>
       <c r="E64">
-        <v>0.03387066786042697</v>
+        <v>-0.001188991885294075</v>
       </c>
       <c r="F64">
-        <v>-0.001879440338596134</v>
+        <v>0.003390235959039002</v>
       </c>
       <c r="G64">
-        <v>0.03304264073935898</v>
+        <v>0.05334140556881093</v>
       </c>
       <c r="H64">
-        <v>-0.00999284827758146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.03698109325508655</v>
+      </c>
+      <c r="I64">
+        <v>-0.04159003616780488</v>
+      </c>
+      <c r="J64">
+        <v>-0.06065803372980681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1116212867302433</v>
+        <v>-0.1138045559178941</v>
       </c>
       <c r="C65">
-        <v>0.03181051248628115</v>
+        <v>0.008900456238281085</v>
       </c>
       <c r="D65">
-        <v>0.02395607151995408</v>
+        <v>0.02131619034961195</v>
       </c>
       <c r="E65">
-        <v>0.003578897292164804</v>
+        <v>0.01812332393455215</v>
       </c>
       <c r="F65">
-        <v>-0.4411593769320138</v>
+        <v>-0.01257315506205234</v>
       </c>
       <c r="G65">
-        <v>-0.225322842491574</v>
+        <v>-0.07327527901387174</v>
       </c>
       <c r="H65">
-        <v>-0.567669657896358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.04367436452960254</v>
+      </c>
+      <c r="I65">
+        <v>-0.0008478892328201084</v>
+      </c>
+      <c r="J65">
+        <v>-0.2792045220502695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1562351787211885</v>
+        <v>-0.1711661561161374</v>
       </c>
       <c r="C66">
-        <v>0.04966557101632525</v>
+        <v>0.09896186958600027</v>
       </c>
       <c r="D66">
-        <v>0.01204116709818567</v>
+        <v>-0.04326305229014019</v>
       </c>
       <c r="E66">
-        <v>0.06438649044072715</v>
+        <v>-0.05427983024512639</v>
       </c>
       <c r="F66">
-        <v>0.09169680143648357</v>
+        <v>0.1561647756506158</v>
       </c>
       <c r="G66">
-        <v>0.2932718143438598</v>
+        <v>0.03703808846228004</v>
       </c>
       <c r="H66">
-        <v>0.1006856153625924</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1450475761977479</v>
+      </c>
+      <c r="I66">
+        <v>-0.05131081677680498</v>
+      </c>
+      <c r="J66">
+        <v>0.03250098993463465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1098872438907684</v>
+        <v>-0.08315110879867438</v>
       </c>
       <c r="C67">
-        <v>0.03819586687409473</v>
+        <v>0.04500078874577629</v>
       </c>
       <c r="D67">
-        <v>-0.007105526674380527</v>
+        <v>0.006862843630215288</v>
       </c>
       <c r="E67">
-        <v>0.04175721218287857</v>
+        <v>-0.07423386855748523</v>
       </c>
       <c r="F67">
-        <v>0.0532037889321313</v>
+        <v>-0.01114279374179824</v>
       </c>
       <c r="G67">
-        <v>0.03034504073344487</v>
+        <v>0.03410097179934534</v>
       </c>
       <c r="H67">
-        <v>0.01714312684411565</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.07380435372808558</v>
+      </c>
+      <c r="I67">
+        <v>0.04572865479813547</v>
+      </c>
+      <c r="J67">
+        <v>-0.006474610355815908</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.03826340004782534</v>
+        <v>-0.0706354329309153</v>
       </c>
       <c r="C68">
-        <v>-0.2923871797357434</v>
+        <v>-0.2744334824882071</v>
       </c>
       <c r="D68">
-        <v>-0.005617162141637913</v>
+        <v>0.08791299224047605</v>
       </c>
       <c r="E68">
-        <v>-0.02050807318473007</v>
+        <v>-0.0111125166419056</v>
       </c>
       <c r="F68">
-        <v>-0.0226969341256018</v>
+        <v>0.03621325681877271</v>
       </c>
       <c r="G68">
-        <v>-0.01612441270677039</v>
+        <v>-0.01127202925096335</v>
       </c>
       <c r="H68">
-        <v>-0.02536473402661885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04472030110981056</v>
+      </c>
+      <c r="I68">
+        <v>-0.04066657836650345</v>
+      </c>
+      <c r="J68">
+        <v>-0.01480680346099947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.05057839275264821</v>
+        <v>-0.03878440431905899</v>
       </c>
       <c r="C69">
-        <v>0.00946245261599412</v>
+        <v>0.006333141786863744</v>
       </c>
       <c r="D69">
-        <v>-0.009290034752042219</v>
+        <v>0.01100873020243541</v>
       </c>
       <c r="E69">
-        <v>-0.03767207063837244</v>
+        <v>-0.02601039487818662</v>
       </c>
       <c r="F69">
-        <v>-0.009437914306680081</v>
+        <v>-0.002047567052655293</v>
       </c>
       <c r="G69">
-        <v>0.01755460436508564</v>
+        <v>0.004861770470004661</v>
       </c>
       <c r="H69">
-        <v>-0.009301664541639212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01004999545633658</v>
+      </c>
+      <c r="I69">
+        <v>0.001479577901658963</v>
+      </c>
+      <c r="J69">
+        <v>0.02024602598838967</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.0821101811237879</v>
+        <v>-0.03986388724873071</v>
       </c>
       <c r="C70">
-        <v>0.01138823841853961</v>
+        <v>-0.004026290175781063</v>
       </c>
       <c r="D70">
-        <v>-0.003001489179612483</v>
+        <v>0.01923278391691806</v>
       </c>
       <c r="E70">
-        <v>0.06092242884720166</v>
+        <v>-0.02804797054030638</v>
       </c>
       <c r="F70">
-        <v>0.01702878597534493</v>
+        <v>0.02440608128164943</v>
       </c>
       <c r="G70">
-        <v>-0.0342552339923615</v>
+        <v>0.0587861237388255</v>
       </c>
       <c r="H70">
-        <v>0.03848168171290125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02288962347574459</v>
+      </c>
+      <c r="I70">
+        <v>-0.01087350185806285</v>
+      </c>
+      <c r="J70">
+        <v>0.00641083473875571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.04845208653661917</v>
+        <v>-0.08152413696782548</v>
       </c>
       <c r="C71">
-        <v>-0.2991432188304732</v>
+        <v>-0.289765197454209</v>
       </c>
       <c r="D71">
-        <v>-0.002899205408091752</v>
+        <v>0.09387238752021777</v>
       </c>
       <c r="E71">
-        <v>0.004325287366413393</v>
+        <v>-0.01362247569125642</v>
       </c>
       <c r="F71">
-        <v>-0.01033203953045805</v>
+        <v>0.02744322514626547</v>
       </c>
       <c r="G71">
-        <v>0.01296627904590832</v>
+        <v>0.01501392610739459</v>
       </c>
       <c r="H71">
-        <v>-0.003585259087827689</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.03999398578120378</v>
+      </c>
+      <c r="I71">
+        <v>-0.03503241392903355</v>
+      </c>
+      <c r="J71">
+        <v>-0.03501163226588828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.13320951589632</v>
+        <v>-0.135033890008055</v>
       </c>
       <c r="C72">
-        <v>-0.01729101015592734</v>
+        <v>-0.01820291890357788</v>
       </c>
       <c r="D72">
-        <v>-0.1077682644971185</v>
+        <v>-0.01086245123294441</v>
       </c>
       <c r="E72">
-        <v>-0.1074121916224639</v>
+        <v>-0.02022526936356127</v>
       </c>
       <c r="F72">
-        <v>-0.03228994919338495</v>
+        <v>0.01086947209698571</v>
       </c>
       <c r="G72">
-        <v>0.03963726048567571</v>
+        <v>-0.04689419110079514</v>
       </c>
       <c r="H72">
-        <v>-0.101196524697139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.03740741382482699</v>
+      </c>
+      <c r="I72">
+        <v>0.00584221789508595</v>
+      </c>
+      <c r="J72">
+        <v>0.01813994319823329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2754240926203678</v>
+        <v>-0.2416542035316819</v>
       </c>
       <c r="C73">
-        <v>0.1378863626789919</v>
+        <v>0.0501342983299971</v>
       </c>
       <c r="D73">
-        <v>-0.1254773761356127</v>
+        <v>-0.04532420535250681</v>
       </c>
       <c r="E73">
-        <v>0.1028719230480473</v>
+        <v>-0.02311419311109325</v>
       </c>
       <c r="F73">
-        <v>-0.2609404084291153</v>
+        <v>0.06652243890442834</v>
       </c>
       <c r="G73">
-        <v>-0.230260525184048</v>
+        <v>0.189201113641587</v>
       </c>
       <c r="H73">
-        <v>0.3677664468560526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2268875775457594</v>
+      </c>
+      <c r="I73">
+        <v>0.3289518483254679</v>
+      </c>
+      <c r="J73">
+        <v>-0.2374070537939144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.0998723357908997</v>
+        <v>-0.1084616184106953</v>
       </c>
       <c r="C74">
-        <v>0.03249936188587122</v>
+        <v>0.02422486983020217</v>
       </c>
       <c r="D74">
-        <v>-0.02005229392628079</v>
+        <v>-0.02805812058830407</v>
       </c>
       <c r="E74">
-        <v>-0.01709283352560546</v>
+        <v>-0.02457178698220056</v>
       </c>
       <c r="F74">
-        <v>0.09999486161047713</v>
+        <v>0.009931877115257665</v>
       </c>
       <c r="G74">
-        <v>-0.04166831313663357</v>
+        <v>0.01013936116039433</v>
       </c>
       <c r="H74">
-        <v>-0.02696175587127488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.04789675405933397</v>
+      </c>
+      <c r="I74">
+        <v>0.07023250072994393</v>
+      </c>
+      <c r="J74">
+        <v>0.1009148802919073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.0925907677362498</v>
+        <v>-0.1209118979081672</v>
       </c>
       <c r="C75">
-        <v>0.01868765117183061</v>
+        <v>0.03692399724594266</v>
       </c>
       <c r="D75">
-        <v>-0.03917003735382191</v>
+        <v>-0.02373242538464322</v>
       </c>
       <c r="E75">
-        <v>-0.07348494625715495</v>
+        <v>-0.01781949446809586</v>
       </c>
       <c r="F75">
-        <v>0.08734668515909419</v>
+        <v>0.005207119971101268</v>
       </c>
       <c r="G75">
-        <v>-0.04936994127244212</v>
+        <v>-0.02160281503116922</v>
       </c>
       <c r="H75">
-        <v>-0.008186403608275411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.008070083329991077</v>
+      </c>
+      <c r="I75">
+        <v>0.035156454667109</v>
+      </c>
+      <c r="J75">
+        <v>0.1505102176294834</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.141980447636005</v>
+        <v>-0.04554684498290287</v>
       </c>
       <c r="C76">
-        <v>0.02659959663700195</v>
+        <v>0.001561517560894286</v>
       </c>
       <c r="D76">
-        <v>0.00333117521016342</v>
+        <v>-0.01221137996559838</v>
       </c>
       <c r="E76">
-        <v>-0.05844850712304175</v>
+        <v>-0.03349278288365723</v>
       </c>
       <c r="F76">
-        <v>0.2146398758618155</v>
+        <v>-0.01301262590725769</v>
       </c>
       <c r="G76">
-        <v>-0.09945777745753308</v>
+        <v>0.027782516172253</v>
       </c>
       <c r="H76">
-        <v>-0.02462678856958012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04384235077205335</v>
+      </c>
+      <c r="I76">
+        <v>0.02918238102512102</v>
+      </c>
+      <c r="J76">
+        <v>0.07867401698663708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07900667788746983</v>
+        <v>-0.08153375539623785</v>
       </c>
       <c r="C77">
-        <v>-0.0057522244994096</v>
+        <v>0.07922834087025707</v>
       </c>
       <c r="D77">
-        <v>0.08773726049486887</v>
+        <v>-0.01483831255821188</v>
       </c>
       <c r="E77">
-        <v>0.1237176380225083</v>
+        <v>0.00711037135533836</v>
       </c>
       <c r="F77">
-        <v>-0.1895782911163744</v>
+        <v>-0.005223134469765956</v>
       </c>
       <c r="G77">
-        <v>0.1744992024540746</v>
+        <v>0.04278987757811567</v>
       </c>
       <c r="H77">
-        <v>0.1554339701180784</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.00823648047493936</v>
+      </c>
+      <c r="I77">
+        <v>-0.1937332545846798</v>
+      </c>
+      <c r="J77">
+        <v>-0.3071759756154033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.23025775516242</v>
+        <v>-0.1311980378646141</v>
       </c>
       <c r="C78">
-        <v>0.04298252700839034</v>
+        <v>0.002132458205956259</v>
       </c>
       <c r="D78">
-        <v>0.2052478903584707</v>
+        <v>-0.1517652480923871</v>
       </c>
       <c r="E78">
-        <v>0.05345052365371949</v>
+        <v>-0.2269895950148105</v>
       </c>
       <c r="F78">
-        <v>-0.039638544465906</v>
+        <v>-0.2877537995083301</v>
       </c>
       <c r="G78">
-        <v>0.1178656118489042</v>
+        <v>-0.1634301711382608</v>
       </c>
       <c r="H78">
-        <v>-0.08872836557810117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.6547396354183812</v>
+      </c>
+      <c r="I78">
+        <v>-0.4828578399200059</v>
+      </c>
+      <c r="J78">
+        <v>0.1023007723046896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.138378630370333</v>
+        <v>-0.1424251433910465</v>
       </c>
       <c r="C79">
-        <v>0.008153754265753127</v>
+        <v>0.03111267299811659</v>
       </c>
       <c r="D79">
-        <v>-0.02955075269023642</v>
+        <v>-0.04681836476432789</v>
       </c>
       <c r="E79">
-        <v>-0.04575359069634839</v>
+        <v>-0.003575141331919779</v>
       </c>
       <c r="F79">
-        <v>0.1101540050503169</v>
+        <v>0.01707232547660149</v>
       </c>
       <c r="G79">
-        <v>-0.005685504168802978</v>
+        <v>0.01467335660134721</v>
       </c>
       <c r="H79">
-        <v>-0.06642924076694143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.03606146039702996</v>
+      </c>
+      <c r="I79">
+        <v>0.05772856757029348</v>
+      </c>
+      <c r="J79">
+        <v>0.1146009591712849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.03787991920505709</v>
+        <v>-0.07271044987317583</v>
       </c>
       <c r="C80">
-        <v>0.003082791882203029</v>
+        <v>0.05532748003575875</v>
       </c>
       <c r="D80">
-        <v>-0.03993447403569361</v>
+        <v>0.01262342164480928</v>
       </c>
       <c r="E80">
-        <v>0.04745304718198687</v>
+        <v>-0.0297186283187414</v>
       </c>
       <c r="F80">
-        <v>-0.03432612671191682</v>
+        <v>0.05935099515483541</v>
       </c>
       <c r="G80">
-        <v>-0.003088812564913076</v>
+        <v>0.00164010959112732</v>
       </c>
       <c r="H80">
-        <v>-0.09546354871658616</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.02221968324917302</v>
+      </c>
+      <c r="I80">
+        <v>-0.06938040643394919</v>
+      </c>
+      <c r="J80">
+        <v>0.1272009345417695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1085532817026658</v>
+        <v>-0.1384187104343474</v>
       </c>
       <c r="C81">
-        <v>-0.002965294087382997</v>
+        <v>0.03920505577063806</v>
       </c>
       <c r="D81">
-        <v>-0.00507495899341406</v>
+        <v>-0.03303781033981126</v>
       </c>
       <c r="E81">
-        <v>-0.02764388647569737</v>
+        <v>-0.02773281007745935</v>
       </c>
       <c r="F81">
-        <v>0.1362697722814961</v>
+        <v>0.0003138190924768318</v>
       </c>
       <c r="G81">
-        <v>-0.02809891390313295</v>
+        <v>0.007770126386449579</v>
       </c>
       <c r="H81">
-        <v>-0.01805279850004842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.03069898433768323</v>
+      </c>
+      <c r="I81">
+        <v>0.003113381696806866</v>
+      </c>
+      <c r="J81">
+        <v>0.1784985665154432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1154535438016379</v>
+        <v>-0.1588735632376975</v>
       </c>
       <c r="C82">
-        <v>0.02130050133328476</v>
+        <v>0.05596717357395641</v>
       </c>
       <c r="D82">
-        <v>-0.02221744044393224</v>
+        <v>-0.0007574694907064165</v>
       </c>
       <c r="E82">
-        <v>0.03470658776483435</v>
+        <v>-0.009522216773439649</v>
       </c>
       <c r="F82">
-        <v>0.2358935799760759</v>
+        <v>0.04093702395836245</v>
       </c>
       <c r="G82">
-        <v>-0.02679398502400868</v>
+        <v>0.04908714427267407</v>
       </c>
       <c r="H82">
-        <v>-0.04667612393935615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.03266936427933159</v>
+      </c>
+      <c r="I82">
+        <v>0.09657708872719915</v>
+      </c>
+      <c r="J82">
+        <v>0.2473312658928509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1119444605291917</v>
+        <v>-0.08738223585212228</v>
       </c>
       <c r="C83">
-        <v>0.04850335577871377</v>
+        <v>0.04861011718724523</v>
       </c>
       <c r="D83">
-        <v>0.001932945804814276</v>
+        <v>-0.00330205819770878</v>
       </c>
       <c r="E83">
-        <v>0.09813947991438914</v>
+        <v>0.02763045384009802</v>
       </c>
       <c r="F83">
-        <v>-0.02661761420622303</v>
+        <v>-0.03350246633638742</v>
       </c>
       <c r="G83">
-        <v>0.09334674271673923</v>
+        <v>-0.01492072400099203</v>
       </c>
       <c r="H83">
-        <v>0.05492931794266282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.0143511270367478</v>
+      </c>
+      <c r="I83">
+        <v>-0.1120541992256289</v>
+      </c>
+      <c r="J83">
+        <v>-0.06460128549637571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.05131251315059807</v>
+        <v>-0.06602873139695283</v>
       </c>
       <c r="C84">
-        <v>0.02848271910745435</v>
+        <v>0.01979630823883373</v>
       </c>
       <c r="D84">
-        <v>0.01200642180723279</v>
+        <v>0.008058199835815624</v>
       </c>
       <c r="E84">
-        <v>-0.04858396427067971</v>
+        <v>0.02646142412005583</v>
       </c>
       <c r="F84">
-        <v>0.06166847142981317</v>
+        <v>0.03569875282513348</v>
       </c>
       <c r="G84">
-        <v>-0.03450012785261393</v>
+        <v>0.04019018908270121</v>
       </c>
       <c r="H84">
-        <v>-0.0157016245948348</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01146155131815372</v>
+      </c>
+      <c r="I84">
+        <v>-0.002210375475637568</v>
+      </c>
+      <c r="J84">
+        <v>0.0249395147163288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1081930564768312</v>
+        <v>-0.1239022688774491</v>
       </c>
       <c r="C85">
-        <v>0.01296540743808696</v>
+        <v>0.02427700892619298</v>
       </c>
       <c r="D85">
-        <v>-0.04689324304916561</v>
+        <v>-0.01681693030846131</v>
       </c>
       <c r="E85">
-        <v>-0.07572512831863656</v>
+        <v>-0.01155355951616575</v>
       </c>
       <c r="F85">
-        <v>0.1364463221823948</v>
+        <v>0.006058848796629969</v>
       </c>
       <c r="G85">
-        <v>-0.01631566719470479</v>
+        <v>0.01485304298424327</v>
       </c>
       <c r="H85">
-        <v>-0.09615221238332534</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.01356781892333237</v>
+      </c>
+      <c r="I85">
+        <v>0.03593218693843876</v>
+      </c>
+      <c r="J85">
+        <v>0.1305011268352806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.07300125308908874</v>
+        <v>-0.1211109395507512</v>
       </c>
       <c r="C86">
-        <v>0.01610206213897428</v>
+        <v>-0.06620722835331223</v>
       </c>
       <c r="D86">
-        <v>0.06106174105074819</v>
+        <v>-0.3273383606910009</v>
       </c>
       <c r="E86">
-        <v>0.1079937143893656</v>
+        <v>0.8647531201944196</v>
       </c>
       <c r="F86">
-        <v>0.02198726285315652</v>
+        <v>-0.1855231850905802</v>
       </c>
       <c r="G86">
-        <v>-0.07378225111276523</v>
+        <v>-0.09231599877951266</v>
       </c>
       <c r="H86">
-        <v>-0.2409655668182282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.06633975214773044</v>
+      </c>
+      <c r="I86">
+        <v>-0.1431386172978663</v>
+      </c>
+      <c r="J86">
+        <v>0.04850359239779989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1098346262916135</v>
+        <v>-0.1143769919127017</v>
       </c>
       <c r="C87">
-        <v>0.05502782188348863</v>
+        <v>0.09856241239185681</v>
       </c>
       <c r="D87">
-        <v>0.05269199531793561</v>
+        <v>0.05184006741710852</v>
       </c>
       <c r="E87">
-        <v>0.02246502295939791</v>
+        <v>-0.001942596566387092</v>
       </c>
       <c r="F87">
-        <v>-0.02202519904023472</v>
+        <v>-0.03032989532362747</v>
       </c>
       <c r="G87">
-        <v>0.1228009096386439</v>
+        <v>0.02910403138054587</v>
       </c>
       <c r="H87">
-        <v>-0.04732936417554653</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.004875925625438867</v>
+      </c>
+      <c r="I87">
+        <v>-0.2172281378574241</v>
+      </c>
+      <c r="J87">
+        <v>-0.2175076111382249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07067292061264728</v>
+        <v>-0.05338126146841034</v>
       </c>
       <c r="C88">
-        <v>0.04041644795571971</v>
+        <v>0.0267338658942729</v>
       </c>
       <c r="D88">
-        <v>0.02271164055550328</v>
+        <v>-0.02592902816049528</v>
       </c>
       <c r="E88">
-        <v>0.02547856960317737</v>
+        <v>-0.03311954294099786</v>
       </c>
       <c r="F88">
-        <v>0.03021759987234097</v>
+        <v>0.0499652053224349</v>
       </c>
       <c r="G88">
-        <v>0.05176747973847128</v>
+        <v>0.01623858149540329</v>
       </c>
       <c r="H88">
-        <v>-0.01213687297079246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.008380177787065986</v>
+      </c>
+      <c r="I88">
+        <v>-0.04494757003224557</v>
+      </c>
+      <c r="J88">
+        <v>0.04173877157531592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09487064109295763</v>
+        <v>-0.1319261819768996</v>
       </c>
       <c r="C89">
-        <v>-0.3874026033834944</v>
+        <v>-0.3636820051907103</v>
       </c>
       <c r="D89">
-        <v>0.03250789480681533</v>
+        <v>0.1058669213771128</v>
       </c>
       <c r="E89">
-        <v>0.04922368771071679</v>
+        <v>-0.006163375088386893</v>
       </c>
       <c r="F89">
-        <v>-0.0223466811004761</v>
+        <v>-0.03942711215713859</v>
       </c>
       <c r="G89">
-        <v>0.000915558753737008</v>
+        <v>0.04732119444425602</v>
       </c>
       <c r="H89">
-        <v>0.02276329438324384</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.004194014218569005</v>
+      </c>
+      <c r="I89">
+        <v>-0.01622443936860082</v>
+      </c>
+      <c r="J89">
+        <v>-0.0006235391030464241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07470274255667451</v>
+        <v>-0.09744083791291408</v>
       </c>
       <c r="C90">
-        <v>-0.2976201110449158</v>
+        <v>-0.2872901721207798</v>
       </c>
       <c r="D90">
-        <v>0.03458350266371386</v>
+        <v>0.08696327921983775</v>
       </c>
       <c r="E90">
-        <v>0.01779942528635123</v>
+        <v>-0.003833066070132015</v>
       </c>
       <c r="F90">
-        <v>-0.02813746513553446</v>
+        <v>0.02948728071122601</v>
       </c>
       <c r="G90">
-        <v>0.02433562753632582</v>
+        <v>0.02553355753398122</v>
       </c>
       <c r="H90">
-        <v>0.04616981842081905</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.04985007281926081</v>
+      </c>
+      <c r="I90">
+        <v>-0.03600981528386599</v>
+      </c>
+      <c r="J90">
+        <v>-0.04404823643245821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08124975056380634</v>
+        <v>-0.08789956892325393</v>
       </c>
       <c r="C91">
-        <v>0.0261723456532676</v>
+        <v>0.02244954892213242</v>
       </c>
       <c r="D91">
-        <v>-0.0125552639557385</v>
+        <v>-0.02212290227758755</v>
       </c>
       <c r="E91">
-        <v>-0.01546829395834694</v>
+        <v>0.006219096204768288</v>
       </c>
       <c r="F91">
-        <v>0.06430779361225761</v>
+        <v>-0.001617173502309358</v>
       </c>
       <c r="G91">
-        <v>-0.05369543008081323</v>
+        <v>0.02129106814425974</v>
       </c>
       <c r="H91">
-        <v>0.02612075657379093</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.003094596314690997</v>
+      </c>
+      <c r="I91">
+        <v>0.02986928116835744</v>
+      </c>
+      <c r="J91">
+        <v>0.09003939342612295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06621176338268162</v>
+        <v>-0.1105989677905894</v>
       </c>
       <c r="C92">
-        <v>-0.3561486609487276</v>
+        <v>-0.3236802473726133</v>
       </c>
       <c r="D92">
-        <v>0.04018845751855599</v>
+        <v>0.1177048537177589</v>
       </c>
       <c r="E92">
-        <v>0.0184656515503068</v>
+        <v>0.001371232806686533</v>
       </c>
       <c r="F92">
-        <v>-0.0620355954843136</v>
+        <v>-0.01329707712735747</v>
       </c>
       <c r="G92">
-        <v>0.009212741711766729</v>
+        <v>0.001666199980560815</v>
       </c>
       <c r="H92">
-        <v>0.02680040049574704</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06156489236873225</v>
+      </c>
+      <c r="I92">
+        <v>-0.05666729277042399</v>
+      </c>
+      <c r="J92">
+        <v>0.02239774398030176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08325210363499667</v>
+        <v>-0.09918261527132256</v>
       </c>
       <c r="C93">
-        <v>-0.3061028792228304</v>
+        <v>-0.3136339624694499</v>
       </c>
       <c r="D93">
-        <v>0.01320381132562348</v>
+        <v>0.0930949322115374</v>
       </c>
       <c r="E93">
-        <v>7.241122045662761e-05</v>
+        <v>0.01106901334865395</v>
       </c>
       <c r="F93">
-        <v>-0.02999454165144596</v>
+        <v>0.04556095680428551</v>
       </c>
       <c r="G93">
-        <v>-0.03456262099247046</v>
+        <v>0.02988581053403003</v>
       </c>
       <c r="H93">
-        <v>0.0002413892043429169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.02495262221696607</v>
+      </c>
+      <c r="I93">
+        <v>-0.03700287373312522</v>
+      </c>
+      <c r="J93">
+        <v>-0.00679905716426806</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09376193995408057</v>
+        <v>-0.1389479430510653</v>
       </c>
       <c r="C94">
-        <v>0.04499760444921835</v>
+        <v>0.04009612850030041</v>
       </c>
       <c r="D94">
-        <v>-0.01365081615072333</v>
+        <v>-0.02346115961694325</v>
       </c>
       <c r="E94">
-        <v>-0.04618162600218283</v>
+        <v>-0.0542907048949348</v>
       </c>
       <c r="F94">
-        <v>0.1142841227986788</v>
+        <v>-0.009901604972801804</v>
       </c>
       <c r="G94">
-        <v>-0.06821876942495636</v>
+        <v>0.007093343854677053</v>
       </c>
       <c r="H94">
-        <v>-0.02926770187247834</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.00450966239602249</v>
+      </c>
+      <c r="I94">
+        <v>0.06532892252391211</v>
+      </c>
+      <c r="J94">
+        <v>0.1474219140542609</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1298169277671045</v>
+        <v>-0.1199448042843607</v>
       </c>
       <c r="C95">
-        <v>0.07096431416244468</v>
+        <v>0.04631260589003022</v>
       </c>
       <c r="D95">
-        <v>0.09801152045379974</v>
+        <v>-0.03158043190465646</v>
       </c>
       <c r="E95">
-        <v>0.05732637366151301</v>
+        <v>-0.03258133701115383</v>
       </c>
       <c r="F95">
-        <v>-0.09369699504423576</v>
+        <v>-0.02772820358575559</v>
       </c>
       <c r="G95">
-        <v>0.1088407932980442</v>
+        <v>0.03805435038879928</v>
       </c>
       <c r="H95">
-        <v>-0.06497004367622616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.04862674190802718</v>
+      </c>
+      <c r="I95">
+        <v>-0.1226241762746381</v>
+      </c>
+      <c r="J95">
+        <v>-0.06156369277474789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01127765825568672</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.00143646943796248</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001023536218981401</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.003936213431706611</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.006239071465563821</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.005474285890861342</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.003188909296337856</v>
+      </c>
+      <c r="I96">
+        <v>-0.02678705688707475</v>
+      </c>
+      <c r="J96">
+        <v>-0.02047148707276417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1476102777600536</v>
+        <v>-0.1689953633151351</v>
       </c>
       <c r="C97">
-        <v>-0.04176586729903119</v>
+        <v>-0.02210798782358032</v>
       </c>
       <c r="D97">
-        <v>-0.2436252814912848</v>
+        <v>-0.0351134829487217</v>
       </c>
       <c r="E97">
-        <v>-0.8328460388066474</v>
+        <v>-0.1100877881765234</v>
       </c>
       <c r="F97">
-        <v>-0.1846956166713982</v>
+        <v>0.004872010554320914</v>
       </c>
       <c r="G97">
-        <v>0.1767793778944903</v>
+        <v>-0.9081348811004862</v>
       </c>
       <c r="H97">
-        <v>0.02334113341469859</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.1255571243145703</v>
+      </c>
+      <c r="I97">
+        <v>0.2149017411983598</v>
+      </c>
+      <c r="J97">
+        <v>-0.09113639648456584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3192350290968798</v>
+        <v>-0.2728008597139555</v>
       </c>
       <c r="C98">
-        <v>0.07234016016289951</v>
+        <v>0.03641512853861778</v>
       </c>
       <c r="D98">
-        <v>-0.1550532518127173</v>
+        <v>0.02724506215685532</v>
       </c>
       <c r="E98">
-        <v>0.1527682670396869</v>
+        <v>0.09971987858159932</v>
       </c>
       <c r="F98">
-        <v>-0.06824098410444912</v>
+        <v>-0.09167290877494108</v>
       </c>
       <c r="G98">
-        <v>-0.1967204461801059</v>
+        <v>0.02126451531785542</v>
       </c>
       <c r="H98">
-        <v>0.2194319820638395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.2549071299923316</v>
+      </c>
+      <c r="I98">
+        <v>0.1696848735617365</v>
+      </c>
+      <c r="J98">
+        <v>0.1675614321338235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.08942420584968259</v>
+        <v>-0.06019737327699708</v>
       </c>
       <c r="C99">
-        <v>0.01244432583798811</v>
+        <v>-0.004465512467287823</v>
       </c>
       <c r="D99">
-        <v>-0.01962958277556334</v>
+        <v>-0.01702245789406836</v>
       </c>
       <c r="E99">
-        <v>0.0004539451737462455</v>
+        <v>-0.04975842990288208</v>
       </c>
       <c r="F99">
-        <v>0.01816803017652232</v>
+        <v>-0.004846034093246317</v>
       </c>
       <c r="G99">
-        <v>0.01641991815632267</v>
+        <v>0.01659028134434596</v>
       </c>
       <c r="H99">
-        <v>0.06862439017226543</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02293438543842019</v>
+      </c>
+      <c r="I99">
+        <v>0.0194610753032228</v>
+      </c>
+      <c r="J99">
+        <v>0.02355206159086086</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.08268420003883019</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2780169969234694</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8676330600248182</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2614614364566393</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.1155667355623603</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.08913819104910081</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.07516156695203351</v>
+      </c>
+      <c r="I100">
+        <v>-0.08320377456976015</v>
+      </c>
+      <c r="J100">
+        <v>0.05697401784057713</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05989444350485349</v>
+        <v>-0.03678622309156035</v>
       </c>
       <c r="C101">
-        <v>-0.002757112464185463</v>
+        <v>0.007935256909521354</v>
       </c>
       <c r="D101">
-        <v>0.05750502011456451</v>
+        <v>0.004583724027357641</v>
       </c>
       <c r="E101">
-        <v>0.02144950837571883</v>
+        <v>-0.009757578547545661</v>
       </c>
       <c r="F101">
-        <v>0.02929021362070044</v>
+        <v>0.02355586164160278</v>
       </c>
       <c r="G101">
-        <v>0.01950642162492841</v>
+        <v>0.02631939252242784</v>
       </c>
       <c r="H101">
-        <v>-0.09718582273794506</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.07369684884277924</v>
+      </c>
+      <c r="I101">
+        <v>-0.08346840040200079</v>
+      </c>
+      <c r="J101">
+        <v>0.04640863590153474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
